--- a/01-Excel/2/Activities/11-Ins_Lookups/Solved/Lookups.xlsx
+++ b/01-Excel/2/Activities/11-Ins_Lookups/Solved/Lookups.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomberton/Desktop/DV-Lesson-Plans/01-Excel/2/Activities/11-Ins_Lookups/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/DataViz-Lesson-Plans_Active/01-Lesson-Plans/01-Excel/2/Activities/11-Ins_Lookups/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454FF0F3-FCB9-AD45-AF4C-F7339BE56D07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA714931-D77D-0F4B-B4E1-199FC0EAF225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16300" tabRatio="706" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23860" yWindow="2060" windowWidth="23800" windowHeight="17600" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLookup" sheetId="1" r:id="rId1"/>
-    <sheet name="HLookup" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="HLookup" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Computer</t>
   </si>
@@ -58,6 +63,12 @@
   </si>
   <si>
     <t>Brand</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Monitor</t>
   </si>
 </sst>
 </file>
@@ -178,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -197,6 +208,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,136 +579,256 @@
       <c r="A2" s="8">
         <v>104</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="5" t="e">
         <f>VLOOKUP(A2,$E$4:$G$7,3,FALSE)</f>
-        <v>Printer</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>103</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="10" t="e">
         <f t="shared" ref="B3:B11" si="0">VLOOKUP(A3,$E$4:$G$7,3,FALSE)</f>
-        <v>Mouse</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>104</v>
       </c>
-      <c r="B4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Printer</v>
-      </c>
-      <c r="E4">
-        <v>101</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B4" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>101</v>
       </c>
-      <c r="B5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Computer</v>
-      </c>
-      <c r="E5">
-        <v>102</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
+      <c r="B5" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>102</v>
       </c>
-      <c r="B6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Keyboard</v>
-      </c>
-      <c r="E6">
-        <v>103</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
+      <c r="B6" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>103</v>
       </c>
-      <c r="B7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Mouse</v>
-      </c>
-      <c r="E7">
-        <v>104</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
+      <c r="B7" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>101</v>
       </c>
-      <c r="B8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Computer</v>
+      <c r="B8" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>104</v>
       </c>
-      <c r="B9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Printer</v>
+      <c r="B9" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>101</v>
       </c>
-      <c r="B10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Computer</v>
+      <c r="B10" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>102</v>
       </c>
-      <c r="B11" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="B11" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>104</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f>VLOOKUP(A21,Sheet1!$C$5:E9,3,FALSE)</f>
+        <v>Printer</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>103</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f>VLOOKUP(A22,Sheet1!$C$5:E10,3,FALSE)</f>
+        <v>Mouse</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>104</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f>VLOOKUP(A23,Sheet1!$C$5:E11,3,FALSE)</f>
+        <v>Printer</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>101</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f>VLOOKUP(A24,Sheet1!$C$5:E12,2,FALSE)</f>
+        <v>Dell</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>102</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f>VLOOKUP(A25,Sheet1!$C$5:E13,3,FALSE)</f>
         <v>Keyboard</v>
       </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>103</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f>VLOOKUP(A26,Sheet1!$C$5:E14,3,FALSE)</f>
+        <v>Mouse</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>101</v>
+      </c>
+      <c r="B27" s="10">
+        <f>VLOOKUP(A27,Sheet1!$C$5:E15,1,FALSE)</f>
+        <v>101</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>104</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f>VLOOKUP(A28,Sheet1!$C$5:E16,3,FALSE)</f>
+        <v>Printer</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>101</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f>VLOOKUP(A29,Sheet1!$C$5:E17,3,FALSE)</f>
+        <v>Computer</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>102</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f>VLOOKUP(A30,Sheet1!$C$5:E18,3,FALSE)</f>
+        <v>Keyboard</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>105</v>
+      </c>
+      <c r="B31" s="10" t="str">
+        <f>VLOOKUP(A31,Sheet1!$C$5:E19,3,FALSE)</f>
+        <v>Monitor</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -705,12 +837,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EA8B51-1375-E947-AC36-F228F3971C38}">
+  <dimension ref="C4:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="8">
+        <v>101</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="8">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="8">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="8">
+        <v>104</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="8">
+        <v>105</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
